--- a/python_topics.xlsx
+++ b/python_topics.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Topics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="practice" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="321">
   <si>
     <t xml:space="preserve">topics</t>
   </si>
@@ -28,9 +29,6 @@
     <t xml:space="preserve">python keyword</t>
   </si>
   <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">identifiers</t>
   </si>
   <si>
@@ -119,6 +117,972 @@
   </si>
   <si>
     <t xml:space="preserve">decorator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. start the Python interpreter and display some messages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. In the python shell define some variables and print their values and datatypes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Use Python interpreter as a calculator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Write a function to print some messages to the screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Write a function(void) to compute and display power of a number (hint:n1**n2 - n1 to the power of n2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Write a function(fruitful) to compute and return power of a number  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Write a function to display the distance between two points in XY plane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Write a script to display the distance between two points in XY plane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Write a script to contain a void function to display the distance between two points in XY plane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Write a script to contain a  function(fruitful) to return the distance between two points in XY plane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a function to check whether a given(as param)number is odd or even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Write a function to find the gretest number among three given numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Write scipts for Problems 1 and 2.(without using function)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Write scipts for Problems 1 and 2.(using function without any parameter) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Write scipts for Problems 1 and 2.(using function with parameters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Write a script to read a name(say Raju) and mark(say 70) and  print the message 'Raju scored 70 of 100' on to the screen.(using only input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a script to print numbers in descending order starting from a given input(do not use a loop).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Do 1 using while loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Write a script to print factorial of a number (without using loop).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Do 3 using while loop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Write a script to check whether an input number is prime or not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(use while loop without else)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. write a program to print the length of a string (without using len() function) using for loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Write a program to reverse a given string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Write a program to print the no. of occurences of a given character in a given string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Write a program to check for at least two vowels in a given string. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a script to reverse a given sentence without reversing words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a script to print the no. of palindrome words in a given sentence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a script to count letters in a given string(using dict).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a script to count words in a given sentence (using dict).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a script to to perform division as per the following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Get two numbers for divident and divisor values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Define a function div_f with one required parameter namely divident and one default param(with value 2)namely divisor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. The function should return Quotient and remainder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. call the function store the return value in a suitable variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. print the variable where the retun value is stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write a script to to perform division as per the following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Get two numbers for divident and divisor values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Define a function div_f with two keyword parameters- namely divident and divisor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a menu based program that finds the value of a controll variable 'con' based on the following equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con = a + 10bc - 5d / e.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variables a,b,c,d and e are stored in a separate file (module).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The values of these varables may be modified in the module file while the program is running.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main program should terminate upon receiving 0 as input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options are,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Initialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Show </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Reload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0. Exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If option is 1, the module should be imported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If 2, the value of control variable should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If 3, the module should be reloaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a  program to create a file to store multiplication table for a number as per the following . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the number from user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using list comprehension create a list  to contain the products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take each item from the list and write the same to a file in the following format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 X &lt;input no&gt; = &lt;first item from list&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 X &lt;input no&gt; = &lt;second item from list&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify the above (Q.No.1) to accept filename and number via commandline arguments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syntax for giving the command is ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    scriptname filename number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The multiplication table for the number should  be stored inside filename. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to store and display employee details(name empno salary) using class concept.(There should be separate methods for store and display)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Modify the above program to contain a constructor for getting and storing the details.(There should be a separate method for displaying the details)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a menu based program to manage BankAccounts using class concept(develop your own logic) with the following features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. account number - data(instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. account balance - data(instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. account type -data(instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. number of accounts-data(class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. account holder name-data(instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f. account holder address-data(instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g. methods for deposit,withdraw,setting and getting account &amp; account holder details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Note: you may create a list of bank account instances OR a dict of bank account instances with 'account no' as key in your program )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Write a program to create different(two) categories of employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Create a base class Employee to store name,empno,basicpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 Create a derived (from Employee) class Scientist to store Technical allowance and Category (additionally).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 Create another derived (from Employee) class Officer to store Grade and department (additionally) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 Create some instances of Scientists and Officers and display the details(by calling respective methods)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Modify the above program to add str method such that,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str(scentist instance) should give  Scientis &lt;name&gt; with id &lt;empno&gt; has a salary of &lt;Total salary&gt; and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str(Officerinstance) should give  Officer &lt;name&gt; with id &lt;empno&gt; has a salary of &lt;Total salary&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Write a program to store,display vector quantities. Also, define + operator for vectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Write a program to store,display complex numbers. Also, define + operator for two complex numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a+bi) + (c+di) = (a+c) + (b+d)i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to create and show different categories of Vehicles from a vehicle abstract class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Create a base class vehcle to store nameofowner,vehno,noofwheels,presentvalue,yearofmake,buyingprice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Create  derived classes - car,bus and truck with different mode of calculating present value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1 for a car, every year, the value is decreasing by an amount of Rs.5000.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.2 for a bus, every year, the value is decreasing by an amount of Rs.1000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.3 for a truck, every year, the value is decreasing by an amount of Rs.12000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a program to create and show different categories of employees having the following attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.1 Employees are of two main categories Engineers and Officers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.2 Each employee has a name,no,basic pay,da(30% of basic),hra(10% of basic) and sp.allowance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 sp.allowance for engineers is 20% and 10% for Officers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 Engineers are grouped into Junior Engrs and Senior Engrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.5 Junior Engrs will get an additional 500 Rupees with their hra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.6 Senior Engrs will get an additional 1000 Rupees with their hra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(hint:Engineer and Officer should inherit from Employee,JuniorEngr and SeniorEngr should inherit from Engineer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Instantiation of Employee and Engineer should be denied)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program(of your own choice) to show multiple inheritance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program(of your own choice) to show multilevel inheritance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to print all the exception classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the output should be as follows,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-subclass1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Subclass11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--SubClass12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---SubClass121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----SubClass1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---SubClass122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Subclass2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--SubClass21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here SubClass12 is the base class for SubClass121  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a text file named book  and store the values from the given xml file(book.xml).
+ Each line in the text file should have the following format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The book Think Python belongs to python category and is written by AB downy.
+      This book is published in the year 2015 with a price of 300. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.The book Def Guide belongs to hadoop category and is written by Tom White.
+      This book is published in the year 2015 with a price of 900. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a csv file emp.csv that contains the following data,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    eno,ename,edesig,esalary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    101,Anil,scientist,50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    102,Mary,scieltist,55000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    103,Raju,engineer,60000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    104,Ravi,officer,40000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   write a script to create an xml file from the above data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (employee can be made as root node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a module that contains functions for performing the following(use re).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Slno 1 to 6 should return boolean )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.IsInteger-Should take one parameter as string and should contain integer for True else False. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.IsFloat-Should take one parameter as string and if it contains a float return True else False.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.HasVowel-supplied string should contain at least one vowel char for True else False.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.IsHex - supplied string should contain only hex digits,if so True else False.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.IsDate - True if given a date in DD-MM-YYYY format.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6.IsValidPassword - True is the given string containas - 8 to 16 alphanumerics,at least 2 digits,at least 2 lowercase letters </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and atleast two uppercase letters  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.IsValidEmail-True if the given string is valid email id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open a python interpreter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. import numpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. create a 1D array having 5 elements (integers) using array method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. do 3 using arange  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. create a 3 dimensional array containing 1s(integers), there should be 40 members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. print the total number of elements (size) for the above array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Check and explain the difference between array and asarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Create an identity mtrix of a given specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Create an array containing 0s inheriting shape from the array created in Q.No.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Print the size,shape,dimensions and datatype of all the above arrays. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open python interpreter and do the following.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Create an integer(32bit) array of shape 2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Create another array using the values from the above array (Qno.1) but with a type of float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Create another array using the values from the above array (Qno.1) but with a type of int64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Create another array using the values from the above array (Qno.1) but with a type of str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Create another array using the values from the above array (Qno.4) but with a type of str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a 2 dimensional array conating 4 rows and 3 columns each and do different slicing operations and note your findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select first row  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; select third row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; select second column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; select first two elements of second and third rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; select last element of each row etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.Create a numpy array(with a suitable shape) to store numbers from 11 to 50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using boolean indexing, replace all the numbers that are multiples of 5 with -1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.Write a function to return diagonal elements of an array(NxN) as an array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Write a function to return the number of occurences of a given element in a numpy array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Modify the above function (Q.No.8) to accept array of any shape and to return the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    diagonal elements of the highest possible NxN array constructed from the given array. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python script to create and store a 2D array as a file by receiving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start and end numbers from user. The array should contain elements from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start to end incremented by 1. A suitable shape can be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decided by the programmer.0 can be used to fill columns if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From this array, using conditional logic, create two new arrays , consisting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elements which are divisible by a given number,say dn1, in the first array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and not divisible by dn1 in the second array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A local shop sells three types of Laptops on Monday to Thursday- hp,sony and dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the prices are 30000,35000 and 40000 respectively.The sales of items are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using numpy, calculate the sales collection for each day(hint : matrix maltiplication)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a numpy structured array using the emp.csv file available in common folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 display all the records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 display names of officers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 display all the scientists records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 display the total salary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 display average salary of engineers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 display employees in the ascending order of salary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 display employees in the ascending order of designation and then salary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 display the lowest salary for scientist designation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9 display records of employees who are scientists and are drawing the lowest salary(without using sort).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Write a menu based python script to create a numpy structured array using the given(common folder) emp.csv file with the following options,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)initialize b)add new record c)delete a record d)Display details by name e)Display summary f)Save All g)Exit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        a-Load data from emp.csv to numpy array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        b-Get details from user and append it to the existing numpy array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-Remove an employee record by receiving employee number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        d-Display an employee record by receiving ename or employee number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        e-Display total number of emplyees and total salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        f-Replace emp.csv with the modified array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        g-Quit the program   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Open python interpreter/ipython and do the following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.import pandas library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.print the verion of pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.create a series object having 5 elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.print all the elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.print first two elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.create another series object by supplying string labels as index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.print all the elements/print individual elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.create a dict object and then  a series object from that dictionary  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.create another dict obj with some common keys (Q.No.8) and then a series obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.add the two Series objs and print the result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Open python interpreter/ipython and do the following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.create a dataframe obj from a dict of lists of your own choice(other than population) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Add another column on the above object and insert values.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.create a dataframe obj from a series obj of your own choice.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5.create a dataframe obj from the above series obj(Qno.4) after assigning a value for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> name attribute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.create a dataframe object from a numpy 2D array by giving values for columns and index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of your own choice. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7.create a nested dictionary to store employee details like empno,empname and salary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  create a dataframe from this dict.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8.create a series object to contain designations of the above employees, assign 'desig' as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the name to this series object.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.Add the above series object to the dataframe object and the column name should be the same </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as series name.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Create two series objects with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values (1,2 ... 6) and (11,22 ... 66),  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indices (a,b,c,d,e,f) and (d,e,f,x,y,z) respectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the two series objects, the result should contain 9 nonzero values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(use reindex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open python interpreter/ipython and do the following.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.import pandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Create a (4,4)2D array  consisting of integers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Create a masked array from the above array by making numbers which are divisible by 3 as invalid values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Create a dataframe from the above masked array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Create a series of your own choice and do reindexing by exploring ffill,bfill,nearest etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Create a Dataframe object of your own choice and do reindexing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.Create a (4,4)2D array  consisting of integers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.create a dataframe object from the above array by making c1,c2,c3,c4 as column indices and r1,r2,r3,r4 as row indices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Using integer based indexing print the very first element(row 0, column 0) as a scalar,as a series,and as a dataframe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 do 2.1 using label based indexing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 Print last two rows and columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.Create another (4,4)2D array  consisting of integers, with c1,c2,c5,c6 as column indices and r3,r4,r5,r6 as row indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a dataframe from this array and do the following,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) add the two dataframes(QNo.7) using '+' operator,withoou any NaN in the result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) add the two dataframes using 'add' method,withoou any NaN in the result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Create DataFrame obj(shape 3,4) and from that create two Series objs(one for axis 0,other for axis 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perform subtraction operation for both cases(along the two axes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.create a dataframe object from a (10,4)2D array  consisting of random integers between 10 and 20 by making c1,c2,c3,c4 as column indices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Sort the above oject based on the key 'c1' in ascending and then by 'c3' in descending order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.write script to store item,place and total sale in a dataframe object.There should be 3 or more places and 4 or more items in the set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Based on the choice entered by user, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           (ii) show placewise rank for a particular item (for a given item name).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (iii)Show itemwise rank for a particular place (for a given place name).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.switch to home directory and send the output of ls -l command to a file named lsf1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.create another file lsf2 by replacing all the spaces with ',' use tr command tr ' ' ',' &lt; lsf1 &gt; lsf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.create another file lsf3 by squeezing multiple ',' use tr command - tr -s ',' &lt; lsf2 &gt; lsf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.using pandas read the file lsf3 and sort it based on file size (fifth column)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.write the above dataframe obj (sorted) to a new file named lsf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Using the emp.csv file available in common folder,create a data frame object named ef1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Remove all the non digit characters from ephno column and store the new data in ef2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Write the three columns ename,edesig and esalary to the excel file empx.xlsx with sheet name as salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Write the two columns ename and  ephno to the same excel file empx.xlsx with sheet name as phone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.In the data frame ef2 make edesig and eno as row index &amp; store the new data in ef3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.In ef3, sort the index edesig and store the result in ef4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.Using ef4, display all the scientists records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.Display average salary of engineers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.Display the lowest salary for scientist designation.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +1092,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,6 +1134,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +1183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,6 +1197,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,13 +1225,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
   </cols>
@@ -268,158 +1245,155 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -431,4 +1405,1620 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G329"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="100.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D217" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>